--- a/Education.xlsx
+++ b/Education.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">START date</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">NAME COURSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shapes</t>
   </si>
   <si>
     <t xml:space="preserve">Licence en réseaux et services informatique </t>
@@ -137,138 +134,21 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1560600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>717480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6598080" y="208800"/>
-          <a:ext cx="1514880" cy="671040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1527840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>739800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6630120" y="1046880"/>
-          <a:ext cx="1450080" cy="674280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>90360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1508760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>819360</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6642720" y="1858320"/>
-          <a:ext cx="1418400" cy="780840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -282,11 +162,8 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2015</v>
       </c>
@@ -294,10 +171,10 @@
         <v>2018</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2019</v>
       </c>
@@ -305,10 +182,10 @@
         <v>2021</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2023</v>
       </c>
@@ -316,7 +193,7 @@
         <v>2024</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -327,6 +204,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>